--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,358 +73,364 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
     <t>super</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
     <t>always</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>w</t>
   </si>
   <si>
-    <t>day</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>good</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>highly</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fast</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>time</t>
   </si>
   <si>
     <t>better</t>
@@ -433,16 +439,7 @@
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>use</t>
@@ -809,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -878,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -928,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -946,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -970,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -978,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.525</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -996,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.8671875</v>
       </c>
       <c r="L5">
+        <v>111</v>
+      </c>
+      <c r="M5">
+        <v>111</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>17</v>
-      </c>
-      <c r="M5">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1028,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3962264150943396</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1046,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.890625</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1070,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1102,13 +1099,13 @@
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1128,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2692307692307692</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1146,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1178,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2626262626262627</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1196,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1228,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0972972972972973</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1246,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8436532507739938</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L10">
-        <v>545</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>545</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1270,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1278,13 +1275,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1296,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1304,13 +1301,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1327,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7402597402597403</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1353,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7333333333333333</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1379,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7316017316017316</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L15">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1405,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1434,13 +1431,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6576271186440678</v>
+        <v>0.65625</v>
       </c>
       <c r="L17">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1460,13 +1457,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.65625</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1486,13 +1483,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6461538461538462</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1512,13 +1509,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1538,13 +1535,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1564,13 +1561,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6326530612244898</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>784</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>784</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1582,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1590,13 +1587,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6301369863013698</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1616,13 +1613,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6274509803921569</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1634,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1642,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1668,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6243980738362761</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>778</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>778</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>468</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1694,13 +1691,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6176470588235294</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1720,25 +1717,25 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>16</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1746,13 +1743,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1764,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1772,13 +1769,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1798,13 +1795,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1824,13 +1821,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5925925925925926</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1842,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1850,13 +1847,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5641025641025641</v>
+        <v>0.5625</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1876,13 +1873,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5641025641025641</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1894,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1902,13 +1899,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5614035087719298</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1928,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1946,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1954,13 +1951,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5384615384615384</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1972,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1980,13 +1977,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5209580838323353</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L38">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2006,13 +2003,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2032,13 +2029,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4957264957264957</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2050,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2058,13 +2055,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4887218045112782</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L41">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M41">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2084,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.4848484848484849</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2110,13 +2107,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4711538461538461</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2128,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2136,13 +2133,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.47</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2154,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2162,13 +2159,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4691358024691358</v>
+        <v>0.475</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2180,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2188,13 +2185,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4603174603174603</v>
+        <v>0.47</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2214,13 +2211,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4473684210526316</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2232,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2240,13 +2237,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4457831325301205</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2258,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2266,25 +2263,25 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L49">
+        <v>18</v>
+      </c>
+      <c r="M49">
+        <v>18</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>21</v>
-      </c>
-      <c r="M49">
-        <v>21</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2292,13 +2289,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4210526315789473</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2310,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2318,13 +2315,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4193548387096774</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2344,13 +2341,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.4166666666666667</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2362,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2370,13 +2367,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.4156626506024096</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L53">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2388,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2396,13 +2393,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.4146341463414634</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2414,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2422,13 +2419,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.4102564102564102</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2448,13 +2445,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.4</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2466,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2474,13 +2471,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3934426229508197</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2492,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2500,13 +2497,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3928571428571428</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2518,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2526,13 +2523,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.391304347826087</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2544,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2552,13 +2549,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3720930232558139</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2570,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2578,13 +2575,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3695652173913043</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2596,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2604,13 +2601,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3657587548638132</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L62">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M62">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2622,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2630,13 +2627,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3553921568627451</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L63">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2648,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>263</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2656,13 +2653,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3552631578947368</v>
+        <v>0.35</v>
       </c>
       <c r="L64">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2682,13 +2679,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.3529411764705883</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2700,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2708,13 +2705,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3452054794520548</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L66">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2726,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>478</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2734,13 +2731,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.3383458646616541</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L67">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M67">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2752,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2760,13 +2757,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.3381294964028777</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L68">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="M68">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2778,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>92</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2786,13 +2783,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.3240740740740741</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2804,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2812,13 +2809,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.3095238095238095</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2830,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2838,13 +2835,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.3063063063063063</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L71">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M71">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2856,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2864,13 +2861,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.3055555555555556</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>50</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2890,13 +2887,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2908,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2916,13 +2913,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2934,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2942,13 +2939,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2781456953642384</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L75">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2960,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2968,13 +2965,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2588235294117647</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2986,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2994,13 +2991,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2574257425742574</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3012,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3020,13 +3017,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2568807339449541</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3038,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3046,13 +3043,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2497308934337998</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L79">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="M79">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3064,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>697</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3072,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.24</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M80">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3090,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3098,13 +3095,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2361111111111111</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3124,13 +3121,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2344497607655502</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L82">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3142,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3150,13 +3147,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.2225705329153605</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="L83">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3168,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>248</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3176,13 +3173,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.2173913043478261</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3194,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3202,13 +3199,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.2147651006711409</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L85">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3220,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3228,25 +3225,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2142857142857143</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3254,13 +3251,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.2136752136752137</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L87">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3272,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>92</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3280,13 +3277,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.2105263157894737</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3298,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3306,25 +3303,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.2072072072072072</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M89">
         <v>23</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3332,13 +3329,13 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.2058823529411765</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L90">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3350,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>621</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3358,13 +3355,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.2015503875968992</v>
+        <v>0.19</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3376,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3384,13 +3381,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1948051948051948</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L92">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3402,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3410,13 +3407,13 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1927710843373494</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3428,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3436,25 +3433,25 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1830238726790451</v>
+        <v>0.1815856777493606</v>
       </c>
       <c r="L94">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M94">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N94">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>616</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3462,13 +3459,13 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1764705882352941</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3480,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>70</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3488,13 +3485,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1744186046511628</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3506,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3514,13 +3511,13 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1717171717171717</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3532,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3540,13 +3537,13 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1707317073170732</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L98">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M98">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3558,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>136</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3566,25 +3563,25 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1657608695652174</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L99">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M99">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>307</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3592,13 +3589,13 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1649484536082474</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L100">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M100">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3610,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>243</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3618,13 +3615,13 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1576354679802956</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="L101">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M101">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3636,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>171</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3644,13 +3641,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1538461538461539</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L102">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M102">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3662,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>110</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3670,13 +3667,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.1533742331288344</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L103">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3688,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3696,25 +3693,25 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.1532846715328467</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L104">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M104">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>348</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3722,13 +3719,13 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.1475409836065574</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L105">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3740,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3748,13 +3745,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.1431818181818182</v>
+        <v>0.1384248210023866</v>
       </c>
       <c r="L106">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M106">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3774,13 +3771,13 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.138655462184874</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L107">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M107">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3792,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3800,13 +3797,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.130718954248366</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L108">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M108">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3818,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>133</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3826,13 +3823,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.1299435028248588</v>
+        <v>0.125</v>
       </c>
       <c r="L109">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M109">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3844,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>154</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3852,13 +3849,13 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1297709923664122</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3870,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3878,13 +3875,13 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1291512915129151</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L111">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M111">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3896,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3904,13 +3901,13 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.1206140350877193</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L112">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3922,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>401</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3930,25 +3927,25 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.119047619047619</v>
+        <v>0.1120879120879121</v>
       </c>
       <c r="L113">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M113">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>111</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3956,13 +3953,13 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.1151515151515152</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M114">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3974,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3982,25 +3979,25 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.1111111111111111</v>
+        <v>0.1018651362984218</v>
       </c>
       <c r="L115">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M115">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>240</v>
+        <v>626</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4008,13 +4005,13 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.1105769230769231</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="L116">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M116">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4026,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>185</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4034,13 +4031,13 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.108974358974359</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L117">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M117">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4052,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4060,13 +4057,13 @@
         <v>132</v>
       </c>
       <c r="K118">
-        <v>0.1088709677419355</v>
+        <v>0.09375</v>
       </c>
       <c r="L118">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M118">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4078,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4086,13 +4083,13 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.0954653937947494</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L119">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M119">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4104,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>379</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4112,13 +4109,13 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.08908045977011494</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L120">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M120">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N120">
         <v>0.97</v>
@@ -4130,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>634</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4138,13 +4135,13 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.07182835820895522</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L121">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="M121">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4156,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>995</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4164,25 +4161,25 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.07103825136612021</v>
+        <v>0.07749766573295985</v>
       </c>
       <c r="L122">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M122">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>340</v>
+        <v>988</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4190,25 +4187,25 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.06617647058823529</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="L123">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M123">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123">
-        <v>254</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4216,25 +4213,25 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.06318681318681318</v>
+        <v>0.05719557195571956</v>
       </c>
       <c r="L124">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M124">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N124">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>341</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4242,25 +4239,25 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.05597964376590331</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="L125">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M125">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N125">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>371</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4268,25 +4265,25 @@
         <v>140</v>
       </c>
       <c r="K126">
-        <v>0.05166051660516605</v>
+        <v>0.05234159779614325</v>
       </c>
       <c r="L126">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M126">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>514</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4294,13 +4291,13 @@
         <v>141</v>
       </c>
       <c r="K127">
-        <v>0.04980842911877394</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L127">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M127">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4312,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4320,25 +4317,25 @@
         <v>142</v>
       </c>
       <c r="K128">
-        <v>0.04842615012106537</v>
+        <v>0.03902862098872507</v>
       </c>
       <c r="L128">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M128">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N128">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O128">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>393</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="129" spans="10:17">
@@ -4346,51 +4343,25 @@
         <v>143</v>
       </c>
       <c r="K129">
-        <v>0.04329004329004329</v>
+        <v>0.01963350785340314</v>
       </c>
       <c r="L129">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M129">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N129">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="O129">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K130">
-        <v>0.02094240837696335</v>
-      </c>
-      <c r="L130">
-        <v>16</v>
-      </c>
-      <c r="M130">
-        <v>19</v>
-      </c>
-      <c r="N130">
-        <v>0.84</v>
-      </c>
-      <c r="O130">
-        <v>0.16</v>
-      </c>
-      <c r="P130" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
